--- a/public/leaderboard-advanced.xlsx
+++ b/public/leaderboard-advanced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamzaqureshi/Documents/Programming/Python/poker-tournament-leaderboard/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F3F7FF-CCDF-4E46-B593-FD1249BC5090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D29AC01-3267-024C-87FD-744B4EE3C249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{3B0C8A87-987F-2A45-9BBE-286BBDB04A79}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
   </si>
   <si>
     <t>Total</t>
@@ -182,10 +179,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,17 +506,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AA912F-673C-7245-A1EF-7E56F8F0B9A8}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="10.83203125" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -530,19 +539,16 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
         <v>50800</v>
@@ -559,19 +565,16 @@
       <c r="G2" s="2">
         <v>-30000</v>
       </c>
-      <c r="H2" s="2">
-        <v>-30000</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="H2" s="4">
         <v>197800</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
         <v>-30000</v>
@@ -588,19 +591,16 @@
       <c r="G3" s="2">
         <v>-30000</v>
       </c>
-      <c r="H3" s="2">
-        <v>117400</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="H3" s="4">
         <v>107200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
         <v>-30000</v>
@@ -617,19 +617,16 @@
       <c r="G4" s="2">
         <v>88200</v>
       </c>
-      <c r="H4" s="2">
-        <v>-30000</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="H4" s="4">
         <v>92200</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2">
         <v>-30000</v>
@@ -646,19 +643,16 @@
       <c r="G5" s="2">
         <v>16100</v>
       </c>
-      <c r="H5" s="2">
-        <v>36100</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="H5" s="4">
         <v>72300</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2">
         <v>20900</v>
@@ -675,19 +669,16 @@
       <c r="G6" s="2">
         <v>48700</v>
       </c>
-      <c r="H6" s="2">
-        <v>2100</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="H6" s="4">
         <v>69900</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
         <v>-30000</v>
@@ -704,19 +695,16 @@
       <c r="G7" s="2">
         <v>56600</v>
       </c>
-      <c r="H7" s="2">
-        <v>8200</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="H7" s="4">
         <v>58100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2">
         <v>-30000</v>
@@ -733,19 +721,16 @@
       <c r="G8" s="2">
         <v>-30000</v>
       </c>
-      <c r="H8" s="2">
-        <v>14700</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="H8" s="4">
         <v>56200</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2">
         <v>140000</v>
@@ -762,17 +747,16 @@
       <c r="G9" s="2">
         <v>-30000</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2">
+      <c r="H9" s="4">
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2">
         <v>-30000</v>
@@ -789,17 +773,16 @@
       <c r="G10" s="2">
         <v>-30000</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2">
+      <c r="H10" s="4">
         <v>40000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2">
         <v>19500</v>
@@ -816,19 +799,16 @@
       <c r="G11" s="2">
         <v>-100</v>
       </c>
-      <c r="H11" s="2">
-        <v>-30000</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="H11" s="4">
         <v>35400</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2">
         <v>-30000</v>
@@ -845,19 +825,16 @@
       <c r="G12" s="2">
         <v>7800</v>
       </c>
-      <c r="H12" s="2">
-        <v>-30000</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="H12" s="4">
         <v>7200</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2">
         <v>-30000</v>
@@ -874,17 +851,16 @@
       <c r="G13" s="2">
         <v>-30000</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2">
+      <c r="H13" s="4">
         <v>2500</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2">
         <v>-30000</v>
@@ -901,19 +877,16 @@
       <c r="G14" s="2">
         <v>34300</v>
       </c>
-      <c r="H14" s="2">
-        <v>-30000</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="H14" s="4">
         <v>-22400</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2">
         <v>-30000</v>
@@ -930,19 +903,16 @@
       <c r="G15" s="2">
         <v>-7900</v>
       </c>
-      <c r="H15" s="2">
-        <v>-30000</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="H15" s="4">
         <v>-35000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2">
         <v>-30000</v>
@@ -959,17 +929,16 @@
       <c r="G16" s="2">
         <v>-30000</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2">
+      <c r="H16" s="4">
         <v>-81500</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2">
         <v>-30000</v>
@@ -986,17 +955,16 @@
       <c r="G17" s="2">
         <v>-30000</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2">
+      <c r="H17" s="4">
         <v>-85100</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2">
         <v>-30000</v>
@@ -1013,19 +981,16 @@
       <c r="G18" s="2">
         <v>-29000</v>
       </c>
-      <c r="H18" s="2">
-        <v>-30000</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="H18" s="4">
         <v>-89700</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="2">
         <v>-20000</v>
@@ -1042,17 +1007,16 @@
       <c r="G19" s="2">
         <v>-30000</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2">
+      <c r="H19" s="4">
         <v>-110000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2">
         <v>-30000</v>
@@ -1069,17 +1033,16 @@
       <c r="G20" s="2">
         <v>-30000</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2">
+      <c r="H20" s="4">
         <v>-120000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2">
         <v>-30000</v>
@@ -1096,17 +1059,16 @@
       <c r="G21" s="2">
         <v>-30000</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2">
+      <c r="H21" s="4">
         <v>-120000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2">
         <v>-30000</v>
@@ -1123,17 +1085,16 @@
       <c r="G22" s="2">
         <v>-30000</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2">
+      <c r="H22" s="4">
         <v>-120000</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2">
         <v>-30000</v>
@@ -1150,17 +1111,16 @@
       <c r="G23" s="2">
         <v>-30000</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2">
+      <c r="H23" s="4">
         <v>-120000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2">
         <v>-30000</v>
@@ -1177,17 +1137,16 @@
       <c r="G24" s="2">
         <v>-30000</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2">
+      <c r="H24" s="4">
         <v>-120000</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="2">
         <v>-30000</v>
@@ -1204,17 +1163,16 @@
       <c r="G25" s="2">
         <v>-30000</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2">
+      <c r="H25" s="4">
         <v>-120000</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="2">
         <v>-30000</v>
@@ -1231,8 +1189,7 @@
       <c r="G26" s="2">
         <v>-30000</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2">
+      <c r="H26" s="4">
         <v>-120000</v>
       </c>
     </row>
